--- a/public/SamoleData.xlsx
+++ b/public/SamoleData.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dingqi/Documents/GitHub/BoatDataMng/boatBoot/src/main/resources/static/static/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19060" windowHeight="8660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640"/>
   </bookViews>
   <sheets>
     <sheet name="声管小样数据" sheetId="4" r:id="rId1"/>
     <sheet name="水罐大样数据" sheetId="2" r:id="rId2"/>
     <sheet name="缩比模型数据" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>样品名称</t>
   </si>
@@ -262,18 +272,20 @@
   <si>
     <t>敷瓦辐射声功率/dB</t>
   </si>
+  <si>
+    <t>压力/Mpa</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度/︒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,157 +307,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -463,202 +324,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -666,255 +347,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,58 +393,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1296,27 +691,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83" defaultRowHeight="18" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83" customWidth="1"/>
-    <col min="2" max="2" width="12.83" customWidth="1"/>
-    <col min="3" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="9" width="13.83" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1332,7 +727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1348,7 +743,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1356,7 +751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1364,7 +759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1373,7 +768,7 @@
       </c>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1381,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1390,7 +785,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1399,7 +794,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1408,23 +803,23 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="36" spans="1:4">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1438,7 +833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1450,13 +845,10 @@
       </c>
       <c r="D15">
         <f>1-B15^2-C15^2</f>
-        <v>0.7875</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>20</v>
       </c>
@@ -1468,13 +860,10 @@
       </c>
       <c r="D16">
         <f t="shared" ref="D16:D44" si="0">1-B16^2-C16^2</f>
-        <v>0.7391</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.73909999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>30</v>
       </c>
@@ -1486,13 +875,10 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.6699</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.66990000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>40</v>
       </c>
@@ -1504,13 +890,10 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.5799</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.57989999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>50</v>
       </c>
@@ -1522,13 +905,10 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0.4691</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.46909999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>60</v>
       </c>
@@ -1536,17 +916,14 @@
         <v>0.6</v>
       </c>
       <c r="C20">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0.3375</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.33749999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>70</v>
       </c>
@@ -1554,17 +931,14 @@
         <v>0.7</v>
       </c>
       <c r="C21">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.1851</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.18510000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>80</v>
       </c>
@@ -1576,13 +950,10 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.1895</v>
-      </c>
-      <c r="E22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.18949999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>90</v>
       </c>
@@ -1594,13 +965,10 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0.1923</v>
-      </c>
-      <c r="E23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.19230000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>100</v>
       </c>
@@ -1612,13 +980,10 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0.1935</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.19350000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>110</v>
       </c>
@@ -1630,13 +995,10 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0.1931</v>
-      </c>
-      <c r="E25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.19309999999999988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>120</v>
       </c>
@@ -1648,85 +1010,70 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0.1911</v>
-      </c>
-      <c r="E26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.19109999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>130</v>
       </c>
       <c r="B27">
-        <v>0.580000000000001</v>
+        <v>0.58000000000000096</v>
       </c>
       <c r="C27">
         <v>0.69</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0.187499999999999</v>
-      </c>
-      <c r="E27">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.18749999999999895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>140</v>
       </c>
       <c r="B28">
-        <v>0.560000000000001</v>
+        <v>0.56000000000000105</v>
       </c>
       <c r="C28">
         <v>0.71</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0.182299999999999</v>
-      </c>
-      <c r="E28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.1822999999999988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>150</v>
       </c>
       <c r="B29">
-        <v>0.540000000000001</v>
+        <v>0.54000000000000103</v>
       </c>
       <c r="C29">
-        <v>0.729999999999999</v>
+        <v>0.72999999999999898</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>0.1755</v>
-      </c>
-      <c r="E29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.17550000000000032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>160</v>
       </c>
       <c r="B30">
-        <v>0.520000000000001</v>
+        <v>0.52000000000000102</v>
       </c>
       <c r="C30">
         <v>0.749999999999999</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0.1671</v>
-      </c>
-      <c r="E30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.16710000000000036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>170</v>
       </c>
@@ -1734,53 +1081,44 @@
         <v>0.500000000000001</v>
       </c>
       <c r="C31">
-        <v>0.769999999999999</v>
+        <v>0.76999999999999902</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>0.1571</v>
-      </c>
-      <c r="E31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.15710000000000046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>180</v>
       </c>
       <c r="B32">
-        <v>0.480000000000001</v>
+        <v>0.48000000000000098</v>
       </c>
       <c r="C32">
-        <v>0.789999999999999</v>
+        <v>0.78999999999999904</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>0.145500000000001</v>
-      </c>
-      <c r="E32">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.14550000000000063</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>190</v>
       </c>
       <c r="B33">
-        <v>0.460000000000001</v>
+        <v>0.46000000000000102</v>
       </c>
       <c r="C33">
-        <v>0.809999999999999</v>
+        <v>0.80999999999999905</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0.132300000000001</v>
-      </c>
-      <c r="E33">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.13230000000000064</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>200</v>
       </c>
@@ -1788,53 +1126,44 @@
         <v>0.440000000000001</v>
       </c>
       <c r="C34">
-        <v>0.829999999999999</v>
+        <v>0.82999999999999896</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>0.117500000000001</v>
-      </c>
-      <c r="E34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.11750000000000083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>210</v>
       </c>
       <c r="B35">
-        <v>0.420000000000001</v>
+        <v>0.42000000000000098</v>
       </c>
       <c r="C35">
-        <v>0.849999999999999</v>
+        <v>0.84999999999999898</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>0.101100000000001</v>
-      </c>
-      <c r="E35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.10110000000000097</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>220</v>
       </c>
       <c r="B36">
-        <v>0.400000000000001</v>
+        <v>0.40000000000000102</v>
       </c>
       <c r="C36">
         <v>0.81</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>0.183899999999999</v>
-      </c>
-      <c r="E36">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.18389999999999906</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>230</v>
       </c>
@@ -1842,89 +1171,74 @@
         <v>0.380000000000001</v>
       </c>
       <c r="C37">
-        <v>0.770000000000001</v>
+        <v>0.77000000000000102</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0.262699999999998</v>
-      </c>
-      <c r="E37">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.26269999999999771</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>240</v>
       </c>
       <c r="B38">
-        <v>0.360000000000002</v>
+        <v>0.36000000000000199</v>
       </c>
       <c r="C38">
-        <v>0.730000000000002</v>
+        <v>0.73000000000000198</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0.337499999999996</v>
-      </c>
-      <c r="E38">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.33749999999999558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>250</v>
       </c>
       <c r="B39">
-        <v>0.340000000000002</v>
+        <v>0.34000000000000202</v>
       </c>
       <c r="C39">
-        <v>0.690000000000003</v>
+        <v>0.69000000000000306</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>0.408299999999994</v>
-      </c>
-      <c r="E39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.40829999999999439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>260</v>
       </c>
       <c r="B40">
-        <v>0.320000000000002</v>
+        <v>0.32000000000000201</v>
       </c>
       <c r="C40">
-        <v>0.650000000000004</v>
+        <v>0.65000000000000402</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>0.475099999999994</v>
-      </c>
-      <c r="E40">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.47509999999999353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>270</v>
       </c>
       <c r="B41">
-        <v>0.300000000000002</v>
+        <v>0.30000000000000199</v>
       </c>
       <c r="C41">
-        <v>0.610000000000005</v>
+        <v>0.61000000000000498</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>0.537899999999993</v>
-      </c>
-      <c r="E41">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.53789999999999272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>280</v>
       </c>
@@ -1932,17 +1246,14 @@
         <v>0.71</v>
       </c>
       <c r="C42">
-        <v>0.570000000000007</v>
+        <v>0.57000000000000695</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>0.170999999999992</v>
-      </c>
-      <c r="E42">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.1709999999999921</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>290</v>
       </c>
@@ -1950,17 +1261,14 @@
         <v>0.7</v>
       </c>
       <c r="C43">
-        <v>0.530000000000008</v>
+        <v>0.53000000000000802</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>0.229099999999992</v>
-      </c>
-      <c r="E43">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.22909999999999153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>300</v>
       </c>
@@ -1968,57 +1276,50 @@
         <v>0.69</v>
       </c>
       <c r="C44">
-        <v>0.490000000000009</v>
+        <v>0.49000000000000898</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>0.283799999999991</v>
-      </c>
-      <c r="E44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="1"/>
+        <v>0.28379999999999123</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.16" style="1" customWidth="1"/>
-    <col min="13" max="14" width="7.83" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="7.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.66" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.83" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.83" style="1"/>
+    <col min="16" max="16" width="10.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2026,7 +1327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2034,7 +1335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2042,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2051,7 +1352,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2060,7 +1361,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2069,7 +1370,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +1380,7 @@
       <c r="C7" s="7"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" ht="36" spans="1:9">
+    <row r="8" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2088,7 +1389,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" ht="36" spans="1:9">
+    <row r="9" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -2098,7 +1399,7 @@
       <c r="C9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -2108,7 +1409,7 @@
       <c r="C10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -2118,7 +1419,7 @@
       <c r="C11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2126,7 +1427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2134,7 +1435,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2142,7 +1443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="36" spans="1:2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2150,7 +1451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -2158,7 +1459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2166,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2174,7 +1475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="29.5" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2197,7 +1498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -2209,7 +1510,7 @@
       </c>
       <c r="D20" s="1">
         <f>1-B20^2-C20^2</f>
-        <v>0.7875</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="E20" s="1">
         <v>3.4</v>
@@ -2221,7 +1522,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2233,7 +1534,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21:D49" si="0">1-B21^2-C21^2</f>
-        <v>0.7391</v>
+        <v>0.73909999999999998</v>
       </c>
       <c r="E21" s="1">
         <v>3.5</v>
@@ -2245,7 +1546,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>30</v>
       </c>
@@ -2257,7 +1558,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>0.6699</v>
+        <v>0.66990000000000005</v>
       </c>
       <c r="E22" s="1">
         <v>3.6</v>
@@ -2269,7 +1570,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>40</v>
       </c>
@@ -2281,7 +1582,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>0.5799</v>
+        <v>0.57989999999999997</v>
       </c>
       <c r="E23" s="1">
         <v>3.7</v>
@@ -2293,7 +1594,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>50</v>
       </c>
@@ -2305,7 +1606,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>0.4691</v>
+        <v>0.46909999999999996</v>
       </c>
       <c r="E24" s="1">
         <v>3.8</v>
@@ -2317,7 +1618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>60</v>
       </c>
@@ -2325,11 +1626,11 @@
         <v>0.6</v>
       </c>
       <c r="C25" s="1">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>0.3375</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="E25" s="1">
         <v>3.9</v>
@@ -2338,10 +1639,10 @@
         <v>107</v>
       </c>
       <c r="G25" s="1">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>70</v>
       </c>
@@ -2349,11 +1650,11 @@
         <v>0.7</v>
       </c>
       <c r="C26" s="1">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>0.1851</v>
+        <v>0.18510000000000004</v>
       </c>
       <c r="E26" s="1">
         <v>4</v>
@@ -2365,7 +1666,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>80</v>
       </c>
@@ -2377,10 +1678,10 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>0.1895</v>
+        <v>0.18949999999999989</v>
       </c>
       <c r="E27" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F27" s="1">
         <v>109</v>
@@ -2389,7 +1690,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>90</v>
       </c>
@@ -2401,7 +1702,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>0.1923</v>
+        <v>0.19230000000000003</v>
       </c>
       <c r="E28" s="1">
         <v>4.2</v>
@@ -2410,10 +1711,10 @@
         <v>110</v>
       </c>
       <c r="G28" s="1">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>100</v>
       </c>
@@ -2425,7 +1726,7 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>0.1935</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="E29" s="1">
         <v>4.3</v>
@@ -2437,7 +1738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>110</v>
       </c>
@@ -2449,19 +1750,19 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>0.1931</v>
+        <v>0.19309999999999988</v>
       </c>
       <c r="E30" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F30" s="1">
         <v>112</v>
       </c>
       <c r="G30" s="1">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>120</v>
       </c>
@@ -2473,7 +1774,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>0.1911</v>
+        <v>0.19109999999999994</v>
       </c>
       <c r="E31" s="1">
         <v>4.5</v>
@@ -2485,22 +1786,22 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>130</v>
       </c>
       <c r="B32" s="1">
-        <v>0.580000000000001</v>
+        <v>0.58000000000000096</v>
       </c>
       <c r="C32" s="1">
         <v>0.69</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>0.187499999999999</v>
+        <v>0.18749999999999895</v>
       </c>
       <c r="E32" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F32" s="1">
         <v>114</v>
@@ -2509,19 +1810,19 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>140</v>
       </c>
       <c r="B33" s="1">
-        <v>0.560000000000001</v>
+        <v>0.56000000000000105</v>
       </c>
       <c r="C33" s="1">
         <v>0.71</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>0.182299999999999</v>
+        <v>0.1822999999999988</v>
       </c>
       <c r="E33" s="1">
         <v>4.7</v>
@@ -2530,22 +1831,22 @@
         <v>115</v>
       </c>
       <c r="G33" s="1">
-        <v>9.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>150</v>
       </c>
       <c r="B34" s="1">
-        <v>0.540000000000001</v>
+        <v>0.54000000000000103</v>
       </c>
       <c r="C34" s="1">
-        <v>0.729999999999999</v>
+        <v>0.72999999999999898</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>0.1755</v>
+        <v>0.17550000000000032</v>
       </c>
       <c r="E34" s="1">
         <v>4.8</v>
@@ -2557,31 +1858,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>160</v>
       </c>
       <c r="B35" s="1">
-        <v>0.520000000000001</v>
+        <v>0.52000000000000102</v>
       </c>
       <c r="C35" s="1">
         <v>0.749999999999999</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>0.1671</v>
+        <v>0.16710000000000036</v>
       </c>
       <c r="E35" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F35" s="1">
         <v>117</v>
       </c>
       <c r="G35" s="1">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>170</v>
       </c>
@@ -2589,11 +1890,11 @@
         <v>0.500000000000001</v>
       </c>
       <c r="C36" s="1">
-        <v>0.769999999999999</v>
+        <v>0.76999999999999902</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>0.1571</v>
+        <v>0.15710000000000046</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
@@ -2605,22 +1906,22 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>180</v>
       </c>
       <c r="B37" s="1">
-        <v>0.480000000000001</v>
+        <v>0.48000000000000098</v>
       </c>
       <c r="C37" s="1">
-        <v>0.789999999999999</v>
+        <v>0.78999999999999904</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>0.145500000000001</v>
+        <v>0.14550000000000063</v>
       </c>
       <c r="E37" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F37" s="1">
         <v>119</v>
@@ -2629,19 +1930,19 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>190</v>
       </c>
       <c r="B38" s="1">
-        <v>0.460000000000001</v>
+        <v>0.46000000000000102</v>
       </c>
       <c r="C38" s="1">
-        <v>0.809999999999999</v>
+        <v>0.80999999999999905</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>0.132300000000001</v>
+        <v>0.13230000000000064</v>
       </c>
       <c r="E38" s="1">
         <v>5.2</v>
@@ -2653,7 +1954,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>200</v>
       </c>
@@ -2661,11 +1962,11 @@
         <v>0.440000000000001</v>
       </c>
       <c r="C39" s="1">
-        <v>0.829999999999999</v>
+        <v>0.82999999999999896</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>0.117500000000001</v>
+        <v>0.11750000000000083</v>
       </c>
       <c r="E39" s="1">
         <v>5.3</v>
@@ -2677,19 +1978,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>210</v>
       </c>
       <c r="B40" s="1">
-        <v>0.420000000000001</v>
+        <v>0.42000000000000098</v>
       </c>
       <c r="C40" s="1">
-        <v>0.849999999999999</v>
+        <v>0.84999999999999898</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>0.101100000000001</v>
+        <v>0.10110000000000097</v>
       </c>
       <c r="E40" s="1">
         <v>5.4</v>
@@ -2701,19 +2002,19 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>220</v>
       </c>
       <c r="B41" s="1">
-        <v>0.400000000000001</v>
+        <v>0.40000000000000102</v>
       </c>
       <c r="C41" s="1">
         <v>0.81</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>0.183899999999999</v>
+        <v>0.18389999999999906</v>
       </c>
       <c r="E41" s="1">
         <v>5.5</v>
@@ -2725,7 +2026,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>230</v>
       </c>
@@ -2733,11 +2034,11 @@
         <v>0.380000000000001</v>
       </c>
       <c r="C42" s="1">
-        <v>0.770000000000001</v>
+        <v>0.77000000000000102</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>0.262699999999998</v>
+        <v>0.26269999999999771</v>
       </c>
       <c r="E42" s="1">
         <v>5.6</v>
@@ -2749,19 +2050,19 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>240</v>
       </c>
       <c r="B43" s="1">
-        <v>0.360000000000002</v>
+        <v>0.36000000000000199</v>
       </c>
       <c r="C43" s="1">
-        <v>0.730000000000002</v>
+        <v>0.73000000000000198</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>0.337499999999996</v>
+        <v>0.33749999999999558</v>
       </c>
       <c r="E43" s="1">
         <v>5.7</v>
@@ -2773,19 +2074,19 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>250</v>
       </c>
       <c r="B44" s="1">
-        <v>0.340000000000002</v>
+        <v>0.34000000000000202</v>
       </c>
       <c r="C44" s="1">
-        <v>0.690000000000003</v>
+        <v>0.69000000000000306</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>0.408299999999994</v>
+        <v>0.40829999999999439</v>
       </c>
       <c r="E44" s="1">
         <v>5.8</v>
@@ -2797,19 +2098,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>260</v>
       </c>
       <c r="B45" s="1">
-        <v>0.320000000000002</v>
+        <v>0.32000000000000201</v>
       </c>
       <c r="C45" s="1">
-        <v>0.650000000000004</v>
+        <v>0.65000000000000402</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
-        <v>0.475099999999994</v>
+        <v>0.47509999999999353</v>
       </c>
       <c r="E45" s="1">
         <v>5.9</v>
@@ -2821,19 +2122,19 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>270</v>
       </c>
       <c r="B46" s="1">
-        <v>0.300000000000002</v>
+        <v>0.30000000000000199</v>
       </c>
       <c r="C46" s="1">
-        <v>0.610000000000005</v>
+        <v>0.61000000000000498</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
-        <v>0.537899999999993</v>
+        <v>0.53789999999999272</v>
       </c>
       <c r="E46" s="1">
         <v>6</v>
@@ -2845,7 +2146,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>280</v>
       </c>
@@ -2853,11 +2154,11 @@
         <v>0.71</v>
       </c>
       <c r="C47" s="1">
-        <v>0.570000000000007</v>
+        <v>0.57000000000000695</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
-        <v>0.170999999999992</v>
+        <v>0.1709999999999921</v>
       </c>
       <c r="E47" s="1">
         <v>6.1</v>
@@ -2869,7 +2170,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>290</v>
       </c>
@@ -2877,11 +2178,11 @@
         <v>0.7</v>
       </c>
       <c r="C48" s="1">
-        <v>0.530000000000008</v>
+        <v>0.53000000000000802</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
-        <v>0.229099999999992</v>
+        <v>0.22909999999999153</v>
       </c>
       <c r="E48" s="1">
         <v>6.2</v>
@@ -2893,7 +2194,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>300</v>
       </c>
@@ -2901,11 +2202,11 @@
         <v>0.69</v>
       </c>
       <c r="C49" s="1">
-        <v>0.490000000000009</v>
+        <v>0.49000000000000898</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
-        <v>0.283799999999991</v>
+        <v>0.28379999999999123</v>
       </c>
       <c r="E49" s="1">
         <v>6.3</v>
@@ -2918,32 +2219,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83" defaultRowHeight="18" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="9" width="13.83" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83" style="1"/>
+    <col min="7" max="9" width="13.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -2952,7 +2252,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2961,7 +2261,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="36" spans="1:3">
+    <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2970,7 +2270,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2979,7 +2279,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,7 +2288,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2997,7 +2297,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" ht="36" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -3006,7 +2306,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -3015,7 +2315,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3024,7 +2324,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -3033,7 +2333,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -3042,7 +2342,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" ht="36" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -3051,7 +2351,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -3060,7 +2360,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -3069,7 +2369,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -3078,7 +2378,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
@@ -3087,7 +2387,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -3096,7 +2396,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" ht="54" spans="1:7">
+    <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -3119,7 +2419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -3142,7 +2442,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -3165,7 +2465,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>30</v>
       </c>
@@ -3188,7 +2488,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>40</v>
       </c>
@@ -3211,7 +2511,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>50</v>
       </c>
@@ -3234,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>60</v>
       </c>
@@ -3254,10 +2554,10 @@
         <v>107</v>
       </c>
       <c r="G24" s="1">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>70</v>
       </c>
@@ -3280,18 +2580,18 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>80</v>
       </c>
       <c r="B26" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C26" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E26" s="1">
         <v>109</v>
@@ -3303,7 +2603,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>90</v>
       </c>
@@ -3323,10 +2623,10 @@
         <v>110</v>
       </c>
       <c r="G27" s="1">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>100</v>
       </c>
@@ -3349,18 +2649,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>110</v>
       </c>
       <c r="B29" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C29" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D29" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E29" s="1">
         <v>112</v>
@@ -3369,10 +2669,10 @@
         <v>112</v>
       </c>
       <c r="G29" s="1">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>120</v>
       </c>
@@ -3395,18 +2695,18 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>130</v>
       </c>
       <c r="B31" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C31" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D31" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E31" s="1">
         <v>114</v>
@@ -3418,7 +2718,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>140</v>
       </c>
@@ -3438,10 +2738,10 @@
         <v>115</v>
       </c>
       <c r="G32" s="1">
-        <v>9.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>150</v>
       </c>
@@ -3464,18 +2764,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>160</v>
       </c>
       <c r="B34" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C34" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D34" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E34" s="1">
         <v>117</v>
@@ -3484,10 +2784,10 @@
         <v>117</v>
       </c>
       <c r="G34" s="1">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>170</v>
       </c>
@@ -3510,18 +2810,18 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>180</v>
       </c>
       <c r="B36" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C36" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D36" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E36" s="1">
         <v>119</v>
@@ -3533,7 +2833,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>190</v>
       </c>
@@ -3556,7 +2856,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>200</v>
       </c>
@@ -3579,7 +2879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>210</v>
       </c>
@@ -3602,7 +2902,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>220</v>
       </c>
@@ -3625,7 +2925,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>230</v>
       </c>
@@ -3648,7 +2948,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>240</v>
       </c>
@@ -3671,7 +2971,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>250</v>
       </c>
@@ -3694,7 +2994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>260</v>
       </c>
@@ -3717,7 +3017,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>270</v>
       </c>
@@ -3740,7 +3040,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>280</v>
       </c>
@@ -3763,7 +3063,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>290</v>
       </c>
@@ -3786,7 +3086,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>300</v>
       </c>
@@ -3810,7 +3110,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/SamoleData.xlsx
+++ b/public/SamoleData.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dingqi/Documents/GitHub/BoatDataMng/boatBoot/src/main/resources/static/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dingqi/Desktop/水声/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="声管小样数据" sheetId="4" r:id="rId1"/>
     <sheet name="水罐大样数据" sheetId="2" r:id="rId2"/>
-    <sheet name="缩比模型数据" sheetId="3" r:id="rId3"/>
+    <sheet name="缩比模型数据" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>样品名称</t>
   </si>
@@ -195,89 +195,160 @@
     <t>辐射声功率插入损失/dB</t>
   </si>
   <si>
-    <t>模型名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中尺度模型 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">壳体类型 </t>
+    <t>压力/Mpa</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度/︒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外场试验模型名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中尺度模型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>壳体类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>双层壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">长5.4m，直径3.2m </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>长5.4m，直径3.2m</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>重量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>20T</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>排水量</t>
-  </si>
-  <si>
-    <t>试验时间地点</t>
-  </si>
-  <si>
-    <t>201708杭州</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字文字文字文字文字文字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字文字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验地点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>试验时长</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1个月</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>水域深度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>20m</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>试验深度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>敷设方案名称</t>
-  </si>
-  <si>
-    <t>集成应用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成方案</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>外壳外表面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>外壳内表面</t>
-  </si>
-  <si>
-    <t>内壳外表面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>内壳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>肋骨</t>
-  </si>
-  <si>
-    <t>光壳声目标强度/dB</t>
-  </si>
-  <si>
-    <t>敷瓦声目标强度/dB</t>
-  </si>
-  <si>
-    <t>声目标强度降低量/dB</t>
-  </si>
-  <si>
-    <t>光壳辐射声功率/dB</t>
-  </si>
-  <si>
-    <t>敷瓦辐射声功率/dB</t>
-  </si>
-  <si>
-    <t>压力/Mpa</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度/︒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>光壳声目标强度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率/Hz</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敷瓦声目标强度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>光壳辐射声功率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射声功率插入损失</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>声目标强度降低量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敷瓦辐射声功率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验条件名称</t>
+    <rPh sb="0" eb="1">
+      <t>shi y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tiao j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ming c</t>
+    </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -285,7 +356,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +404,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -353,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,9 +453,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -395,6 +481,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,7 +813,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -723,7 +821,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -731,7 +829,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -739,7 +837,7 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>0.497</v>
       </c>
     </row>
@@ -747,7 +845,7 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -755,7 +853,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -763,16 +861,16 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -780,7 +878,7 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3"/>
@@ -789,7 +887,7 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3"/>
@@ -798,22 +896,22 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
-        <v>67</v>
+      <c r="A13" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1295,7 +1393,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1331,7 +1429,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1339,7 +1437,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1347,16 +1445,16 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.497</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="2"/>
@@ -1365,7 +1463,7 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="2"/>
@@ -1374,17 +1472,17 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="2"/>
@@ -1393,7 +1491,7 @@
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="2"/>
@@ -1403,7 +1501,7 @@
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2"/>
@@ -1413,7 +1511,7 @@
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2"/>
@@ -1431,7 +1529,7 @@
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1439,7 +1537,7 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1447,7 +1545,7 @@
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1455,7 +1553,7 @@
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2226,891 +2324,1205 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="9" width="13.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="9" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="5">
+        <v>201708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21" s="15">
+        <v>21.066067085516597</v>
+      </c>
+      <c r="D21" s="15">
+        <f>B21-C21</f>
+        <v>1.9339329144834032</v>
+      </c>
+      <c r="E21">
+        <v>116</v>
+      </c>
+      <c r="F21" s="15">
+        <v>106.23740934565893</v>
+      </c>
+      <c r="G21" s="15">
+        <f>E21-F21</f>
+        <v>9.7625906543410679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22" s="15">
+        <v>21.020778551427171</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" ref="D22:D60" si="0">B22-C22</f>
+        <v>2.9792214485728294</v>
+      </c>
+      <c r="E22">
+        <v>117</v>
+      </c>
+      <c r="F22" s="15">
+        <v>107.28553238241423</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" ref="G22:G60" si="1">E22-F22</f>
+        <v>9.7144676175857683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="15">
+        <v>18.217422579096251</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="0"/>
+        <v>2.782577420903749</v>
+      </c>
+      <c r="E23">
+        <v>114</v>
+      </c>
+      <c r="F23" s="15">
+        <v>106.29631523655067</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="1"/>
+        <v>7.7036847634493313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>200</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24" s="15">
+        <v>20.775787302253715</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="0"/>
+        <v>4.2242126977462853</v>
+      </c>
+      <c r="E24">
+        <v>118</v>
+      </c>
+      <c r="F24" s="15">
+        <v>107.4980282369897</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="1"/>
+        <v>10.501971763010303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>250</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15">
+        <v>18.558689054759697</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="0"/>
+        <v>4.4413109452403035</v>
+      </c>
+      <c r="E25">
+        <v>116</v>
+      </c>
+      <c r="F25" s="15">
+        <v>106.77648708269268</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="1"/>
+        <v>9.2235129173073176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>300</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="15">
+        <v>20.312397875297407</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="0"/>
+        <v>3.6876021247025932</v>
+      </c>
+      <c r="E26">
+        <v>117</v>
+      </c>
+      <c r="F26" s="15">
+        <v>106.92109527815829</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="1"/>
+        <v>10.07890472184171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>350</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="C27" s="15">
+        <v>16.682971707913122</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="0"/>
+        <v>4.3170282920868779</v>
+      </c>
+      <c r="E27">
+        <v>114</v>
+      </c>
+      <c r="F27" s="15">
+        <v>104.89390742903028</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="1"/>
+        <v>9.1060925709697216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>400</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15">
+        <v>21.112668303165481</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="0"/>
+        <v>3.8873316968345186</v>
+      </c>
+      <c r="E28">
+        <v>118</v>
+      </c>
+      <c r="F28" s="15">
+        <v>107.98456780384635</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="1"/>
+        <v>10.015432196153654</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>450</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" s="15">
+        <v>21.761758080101934</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" si="0"/>
+        <v>4.2382419198980656</v>
+      </c>
+      <c r="E29">
+        <v>119</v>
+      </c>
+      <c r="F29" s="15">
+        <v>108.00743466010996</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="1"/>
+        <v>10.992565339890035</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>500</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30" s="15">
+        <v>20.389995394697774</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6100046053022261</v>
+      </c>
+      <c r="E30">
+        <v>115</v>
+      </c>
+      <c r="F30" s="15">
+        <v>106.05883760594952</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="1"/>
+        <v>8.9411623940504796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>550</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31" s="15">
+        <v>15.599598510478314</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" si="0"/>
+        <v>5.4004014895216859</v>
+      </c>
+      <c r="E31">
+        <v>114</v>
+      </c>
+      <c r="F31" s="15">
+        <v>104.36907558652739</v>
+      </c>
+      <c r="G31" s="15">
+        <f t="shared" si="1"/>
+        <v>9.6309244134726129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>600</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32" s="15">
+        <v>14.404408342379904</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="0"/>
+        <v>3.5955916576200959</v>
+      </c>
+      <c r="E32">
+        <v>111</v>
+      </c>
+      <c r="F32" s="15">
+        <v>103.58830668034668</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="1"/>
+        <v>7.4116933196533239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>650</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33" s="15">
+        <v>16.077341550296488</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="0"/>
+        <v>2.922658449703512</v>
+      </c>
+      <c r="E33">
+        <v>112</v>
+      </c>
+      <c r="F33" s="15">
+        <v>104.69926425302705</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="1"/>
+        <v>7.300735746972947</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>700</v>
+      </c>
+      <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34" s="15">
+        <v>11.837275850468064</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="0"/>
+        <v>5.162724149531936</v>
+      </c>
+      <c r="E34">
+        <v>110</v>
+      </c>
+      <c r="F34" s="15">
+        <v>103.52995739471052</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="1"/>
+        <v>6.4700426052894784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>750</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35" s="15">
+        <v>13.947522668941108</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="0"/>
+        <v>4.052477331058892</v>
+      </c>
+      <c r="E35">
+        <v>111</v>
+      </c>
+      <c r="F35" s="15">
+        <v>104.74272277529612</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="1"/>
+        <v>6.2572772247038841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>800</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36" s="15">
+        <v>13.213092797339518</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" si="0"/>
+        <v>3.7869072026604815</v>
+      </c>
+      <c r="E36">
+        <v>110</v>
+      </c>
+      <c r="F36" s="15">
+        <v>102.3690810105517</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="1"/>
+        <v>7.630918989448304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>850</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37" s="15">
+        <v>13.435548953000721</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" si="0"/>
+        <v>4.5644510469992792</v>
+      </c>
+      <c r="E37">
+        <v>111</v>
+      </c>
+      <c r="F37" s="15">
+        <v>102.98142008374498</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="1"/>
+        <v>8.0185799162550211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>900</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38" s="15">
+        <v>13.145314638787625</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" si="0"/>
+        <v>1.8546853612123755</v>
+      </c>
+      <c r="E38">
+        <v>108</v>
+      </c>
+      <c r="F38" s="15">
+        <v>103.19673015748373</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="1"/>
+        <v>4.8032698425162721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>950</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39" s="15">
+        <v>15.67091382041095</v>
+      </c>
+      <c r="D39" s="15">
+        <f t="shared" si="0"/>
+        <v>3.3290861795890496</v>
+      </c>
+      <c r="E39">
+        <v>112</v>
+      </c>
+      <c r="F39" s="15">
+        <v>105.29244544104293</v>
+      </c>
+      <c r="G39" s="15">
+        <f t="shared" si="1"/>
+        <v>6.7075545589570709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1000</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
+      </c>
+      <c r="C40" s="15">
+        <v>12.799550315533383</v>
+      </c>
+      <c r="D40" s="15">
+        <f t="shared" si="0"/>
+        <v>4.2004496844666175</v>
+      </c>
+      <c r="E40">
+        <v>110</v>
+      </c>
+      <c r="F40" s="15">
+        <v>103.05455091238156</v>
+      </c>
+      <c r="G40" s="15">
+        <f t="shared" si="1"/>
+        <v>6.9454490876184423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>1100</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41" s="15">
+        <v>15.063504730666631</v>
+      </c>
+      <c r="D41" s="15">
+        <f t="shared" si="0"/>
+        <v>2.9364952693333688</v>
+      </c>
+      <c r="E41">
+        <v>111</v>
+      </c>
+      <c r="F41" s="15">
+        <v>104.58438834229052</v>
+      </c>
+      <c r="G41" s="15">
+        <f t="shared" si="1"/>
+        <v>6.4156116577094764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>1200</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42" s="15">
+        <v>9.6825003403413969</v>
+      </c>
+      <c r="D42" s="15">
+        <f t="shared" si="0"/>
+        <v>5.3174996596586031</v>
+      </c>
+      <c r="E42">
+        <v>108</v>
+      </c>
+      <c r="F42" s="15">
+        <v>102.51990714832071</v>
+      </c>
+      <c r="G42" s="15">
+        <f t="shared" si="1"/>
+        <v>5.4800928516792879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>1300</v>
+      </c>
+      <c r="B43">
+        <v>19</v>
+      </c>
+      <c r="C43" s="15">
+        <v>15.989675876328393</v>
+      </c>
+      <c r="D43" s="15">
+        <f t="shared" si="0"/>
+        <v>3.010324123671607</v>
+      </c>
+      <c r="E43">
+        <v>112</v>
+      </c>
+      <c r="F43" s="15">
+        <v>103.57571085476135</v>
+      </c>
+      <c r="G43" s="15">
+        <f t="shared" si="1"/>
+        <v>8.4242891452386459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>1400</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44" s="15">
+        <v>17.171555511346938</v>
+      </c>
+      <c r="D44" s="15">
+        <f t="shared" si="0"/>
+        <v>2.8284444886530622</v>
+      </c>
+      <c r="E44">
+        <v>113</v>
+      </c>
+      <c r="F44" s="15">
+        <v>105.20831246223308</v>
+      </c>
+      <c r="G44" s="15">
+        <f t="shared" si="1"/>
+        <v>7.7916875377669186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>1500</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45" s="15">
+        <v>14.186789678207344</v>
+      </c>
+      <c r="D45" s="15">
+        <f t="shared" si="0"/>
+        <v>2.8132103217926563</v>
+      </c>
+      <c r="E45">
+        <v>110</v>
+      </c>
+      <c r="F45" s="15">
+        <v>102.45625758714209</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="1"/>
+        <v>7.5437424128579096</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>1600</v>
+      </c>
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46" s="15">
+        <v>13.498860968187033</v>
+      </c>
+      <c r="D46" s="15">
+        <f t="shared" si="0"/>
+        <v>4.5011390318129667</v>
+      </c>
+      <c r="E46">
+        <v>111</v>
+      </c>
+      <c r="F46" s="15">
+        <v>103.09671710395398</v>
+      </c>
+      <c r="G46" s="15">
+        <f t="shared" si="1"/>
+        <v>7.9032828960460222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>1700</v>
+      </c>
+      <c r="B47">
+        <v>17</v>
+      </c>
+      <c r="C47" s="15">
+        <v>14.288742092003501</v>
+      </c>
+      <c r="D47" s="15">
+        <f t="shared" si="0"/>
+        <v>2.7112579079964991</v>
+      </c>
+      <c r="E47">
+        <v>110</v>
+      </c>
+      <c r="F47" s="15">
+        <v>103.50941986972521</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="1"/>
+        <v>6.4905801302747932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>1800</v>
+      </c>
+      <c r="B48">
+        <v>18</v>
+      </c>
+      <c r="C48" s="15">
+        <v>13.092793193110447</v>
+      </c>
+      <c r="D48" s="15">
+        <f t="shared" si="0"/>
+        <v>4.9072068068895529</v>
+      </c>
+      <c r="E48">
+        <v>111</v>
+      </c>
+      <c r="F48" s="15">
+        <v>103.17031418806302</v>
+      </c>
+      <c r="G48" s="15">
+        <f t="shared" si="1"/>
+        <v>7.829685811936983</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>1900</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49" s="15">
+        <v>12.161987891984131</v>
+      </c>
+      <c r="D49" s="15">
+        <f t="shared" si="0"/>
+        <v>2.8380121080158691</v>
+      </c>
+      <c r="E49">
+        <v>108</v>
+      </c>
+      <c r="F49" s="15">
+        <v>102.6915451388423</v>
+      </c>
+      <c r="G49" s="15">
+        <f t="shared" si="1"/>
+        <v>5.3084548611576992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>2000</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50" s="15">
+        <v>11.822103535782279</v>
+      </c>
+      <c r="D50" s="15">
+        <f t="shared" si="0"/>
+        <v>5.1778964642177208</v>
+      </c>
+      <c r="E50">
+        <v>110</v>
+      </c>
+      <c r="F50" s="15">
+        <v>103.67003184733056</v>
+      </c>
+      <c r="G50" s="15">
+        <f t="shared" si="1"/>
+        <v>6.3299681526694371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>2100</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51" s="15">
+        <v>13.770494619315183</v>
+      </c>
+      <c r="D51" s="15">
+        <f t="shared" si="0"/>
+        <v>2.2295053806848166</v>
+      </c>
+      <c r="E51">
+        <v>109</v>
+      </c>
+      <c r="F51" s="15">
+        <v>102.11101610660013</v>
+      </c>
+      <c r="G51" s="15">
+        <f t="shared" si="1"/>
+        <v>6.8889838933998675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>2200</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="C52" s="15">
+        <v>9.5569995956208942</v>
+      </c>
+      <c r="D52" s="15">
+        <f t="shared" si="0"/>
+        <v>5.4430004043791058</v>
+      </c>
+      <c r="E52">
+        <v>108</v>
+      </c>
+      <c r="F52" s="15">
+        <v>102.95875193836757</v>
+      </c>
+      <c r="G52" s="15">
+        <f t="shared" si="1"/>
+        <v>5.0412480616324302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>2300</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53" s="15">
+        <v>13.042601996545844</v>
+      </c>
+      <c r="D53" s="15">
+        <f t="shared" si="0"/>
+        <v>2.9573980034541556</v>
+      </c>
+      <c r="E53">
+        <v>109</v>
+      </c>
+      <c r="F53" s="15">
+        <v>102.08519873914828</v>
+      </c>
+      <c r="G53" s="15">
+        <f t="shared" si="1"/>
+        <v>6.9148012608517178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>2400</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+      <c r="C54" s="15">
+        <v>12.002134141614739</v>
+      </c>
+      <c r="D54" s="15">
+        <f t="shared" si="0"/>
+        <v>2.9978658583852607</v>
+      </c>
+      <c r="E54">
+        <v>108</v>
+      </c>
+      <c r="F54" s="15">
+        <v>101.44503217640562</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="1"/>
+        <v>6.5549678235943816</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>2500</v>
+      </c>
+      <c r="B55">
         <v>12</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="C55" s="15">
+        <v>9.2730345985923126</v>
+      </c>
+      <c r="D55" s="15">
+        <f t="shared" si="0"/>
+        <v>2.7269654014076874</v>
+      </c>
+      <c r="E55">
+        <v>105</v>
+      </c>
+      <c r="F55" s="15">
+        <v>100.91820412751457</v>
+      </c>
+      <c r="G55" s="15">
+        <f t="shared" si="1"/>
+        <v>4.0817958724854293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>2600</v>
+      </c>
+      <c r="B56">
+        <v>13</v>
+      </c>
+      <c r="C56" s="15">
+        <v>7.8914798148630094</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" si="0"/>
+        <v>5.1085201851369906</v>
+      </c>
+      <c r="E56" s="1">
+        <v>106</v>
+      </c>
+      <c r="F56" s="15">
+        <v>100.62644533558283</v>
+      </c>
+      <c r="G56" s="15">
+        <f t="shared" si="1"/>
+        <v>5.3735546644171706</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>2700</v>
+      </c>
+      <c r="B57">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C57" s="15">
+        <v>8.3728674552352249</v>
+      </c>
+      <c r="D57" s="15">
+        <f t="shared" si="0"/>
+        <v>2.6271325447647751</v>
+      </c>
+      <c r="E57">
+        <v>104</v>
+      </c>
+      <c r="F57" s="15">
+        <v>100.58247116834559</v>
+      </c>
+      <c r="G57" s="15">
+        <f t="shared" si="1"/>
+        <v>3.4175288316544084</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>2800</v>
+      </c>
+      <c r="B58">
         <v>12</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C58" s="15">
+        <v>9.537079382062343</v>
+      </c>
+      <c r="D58" s="15">
+        <f t="shared" si="0"/>
+        <v>2.462920617937657</v>
+      </c>
+      <c r="E58">
+        <v>105</v>
+      </c>
+      <c r="F58" s="15">
+        <v>101.75021906490862</v>
+      </c>
+      <c r="G58" s="15">
+        <f t="shared" si="1"/>
+        <v>3.2497809350913798</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>2900</v>
+      </c>
+      <c r="B59">
+        <v>13</v>
+      </c>
+      <c r="C59" s="15">
+        <v>10.023158992735867</v>
+      </c>
+      <c r="D59" s="15">
+        <f t="shared" si="0"/>
+        <v>2.9768410072641327</v>
+      </c>
+      <c r="E59">
+        <v>106</v>
+      </c>
+      <c r="F59" s="15">
+        <v>102.14514868709027</v>
+      </c>
+      <c r="G59" s="15">
+        <f t="shared" si="1"/>
+        <v>3.8548513129097302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>3000</v>
+      </c>
+      <c r="B60">
         <v>12</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>102</v>
-      </c>
-      <c r="F19" s="1">
-        <v>102</v>
-      </c>
-      <c r="G19" s="1">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>103</v>
-      </c>
-      <c r="F20" s="1">
-        <v>103</v>
-      </c>
-      <c r="G20" s="1">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="E21" s="1">
-        <v>104</v>
-      </c>
-      <c r="F21" s="1">
-        <v>104</v>
-      </c>
-      <c r="G21" s="1">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C60" s="15">
+        <v>8.6881229948168563</v>
+      </c>
+      <c r="D60" s="15">
+        <f t="shared" si="0"/>
+        <v>3.3118770051831437</v>
+      </c>
+      <c r="E60">
         <v>105</v>
       </c>
-      <c r="F22" s="1">
-        <v>105</v>
-      </c>
-      <c r="G22" s="1">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="E23" s="1">
-        <v>106</v>
-      </c>
-      <c r="F23" s="1">
-        <v>106</v>
-      </c>
-      <c r="G23" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>60</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="E24" s="1">
-        <v>107</v>
-      </c>
-      <c r="F24" s="1">
-        <v>107</v>
-      </c>
-      <c r="G24" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>70</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1">
-        <v>108</v>
-      </c>
-      <c r="F25" s="1">
-        <v>108</v>
-      </c>
-      <c r="G25" s="1">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>80</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E26" s="1">
-        <v>109</v>
-      </c>
-      <c r="F26" s="1">
-        <v>109</v>
-      </c>
-      <c r="G26" s="1">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>90</v>
-      </c>
-      <c r="B27" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>110</v>
-      </c>
-      <c r="F27" s="1">
-        <v>110</v>
-      </c>
-      <c r="G27" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
-        <v>100</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>111</v>
-      </c>
-      <c r="F28" s="1">
-        <v>111</v>
-      </c>
-      <c r="G28" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>110</v>
-      </c>
-      <c r="B29" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C29" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E29" s="1">
-        <v>112</v>
-      </c>
-      <c r="F29" s="1">
-        <v>112</v>
-      </c>
-      <c r="G29" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
-        <v>120</v>
-      </c>
-      <c r="B30" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="C30" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>113</v>
-      </c>
-      <c r="F30" s="1">
-        <v>113</v>
-      </c>
-      <c r="G30" s="1">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
-        <v>130</v>
-      </c>
-      <c r="B31" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C31" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E31" s="1">
-        <v>114</v>
-      </c>
-      <c r="F31" s="1">
-        <v>114</v>
-      </c>
-      <c r="G31" s="1">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>140</v>
-      </c>
-      <c r="B32" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="C32" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="E32" s="1">
-        <v>115</v>
-      </c>
-      <c r="F32" s="1">
-        <v>115</v>
-      </c>
-      <c r="G32" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
-        <v>150</v>
-      </c>
-      <c r="B33" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="C33" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="E33" s="1">
-        <v>116</v>
-      </c>
-      <c r="F33" s="1">
-        <v>116</v>
-      </c>
-      <c r="G33" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
-        <v>160</v>
-      </c>
-      <c r="B34" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E34" s="1">
-        <v>117</v>
-      </c>
-      <c r="F34" s="1">
-        <v>117</v>
-      </c>
-      <c r="G34" s="1">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
-        <v>170</v>
-      </c>
-      <c r="B35" s="1">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1">
-        <v>118</v>
-      </c>
-      <c r="F35" s="1">
-        <v>118</v>
-      </c>
-      <c r="G35" s="1">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
-        <v>180</v>
-      </c>
-      <c r="B36" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D36" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E36" s="1">
-        <v>119</v>
-      </c>
-      <c r="F36" s="1">
-        <v>119</v>
-      </c>
-      <c r="G36" s="1">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>190</v>
-      </c>
-      <c r="B37" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>120</v>
-      </c>
-      <c r="F37" s="1">
-        <v>120</v>
-      </c>
-      <c r="G37" s="1">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
-        <v>200</v>
-      </c>
-      <c r="B38" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="D38" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="E38" s="1">
-        <v>121</v>
-      </c>
-      <c r="F38" s="1">
-        <v>121</v>
-      </c>
-      <c r="G38" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
-        <v>210</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="D39" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="E39" s="1">
-        <v>122</v>
-      </c>
-      <c r="F39" s="1">
-        <v>122</v>
-      </c>
-      <c r="G39" s="1">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
-        <v>220</v>
-      </c>
-      <c r="B40" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="D40" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="E40" s="1">
-        <v>123</v>
-      </c>
-      <c r="F40" s="1">
-        <v>123</v>
-      </c>
-      <c r="G40" s="1">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
-        <v>230</v>
-      </c>
-      <c r="B41" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="C41" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="D41" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="E41" s="1">
-        <v>124</v>
-      </c>
-      <c r="F41" s="1">
-        <v>124</v>
-      </c>
-      <c r="G41" s="1">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
-        <v>240</v>
-      </c>
-      <c r="B42" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="C42" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="E42" s="1">
-        <v>125</v>
-      </c>
-      <c r="F42" s="1">
-        <v>125</v>
-      </c>
-      <c r="G42" s="1">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
-        <v>250</v>
-      </c>
-      <c r="B43" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="C43" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="D43" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="E43" s="1">
-        <v>126</v>
-      </c>
-      <c r="F43" s="1">
-        <v>126</v>
-      </c>
-      <c r="G43" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
-        <v>260</v>
-      </c>
-      <c r="B44" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="C44" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="D44" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="E44" s="1">
-        <v>127</v>
-      </c>
-      <c r="F44" s="1">
-        <v>127</v>
-      </c>
-      <c r="G44" s="1">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
-        <v>270</v>
-      </c>
-      <c r="B45" s="1">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1">
-        <v>6</v>
-      </c>
-      <c r="D45" s="1">
-        <v>6</v>
-      </c>
-      <c r="E45" s="1">
-        <v>128</v>
-      </c>
-      <c r="F45" s="1">
-        <v>128</v>
-      </c>
-      <c r="G45" s="1">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
-        <v>280</v>
-      </c>
-      <c r="B46" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="C46" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>129</v>
-      </c>
-      <c r="F46" s="1">
-        <v>129</v>
-      </c>
-      <c r="G46" s="1">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
-        <v>290</v>
-      </c>
-      <c r="B47" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="C47" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="D47" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>130</v>
-      </c>
-      <c r="F47" s="1">
-        <v>130</v>
-      </c>
-      <c r="G47" s="1">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
-        <v>300</v>
-      </c>
-      <c r="B48" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="C48" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="D48" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>131</v>
-      </c>
-      <c r="F48" s="1">
-        <v>131</v>
-      </c>
-      <c r="G48" s="1">
-        <v>13</v>
+      <c r="F60" s="15">
+        <v>101.37773180877834</v>
+      </c>
+      <c r="G60" s="15">
+        <f t="shared" si="1"/>
+        <v>3.6222681912216643</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>